--- a/Multi-Physics/Hardware/Parts.xlsx
+++ b/Multi-Physics/Hardware/Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk.sharepoint.com/sites/Jensen-Lab/Shared Documents/papers/2024/2024_Gennis_Nectar/Supplemental/Robot_Parts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk.sharepoint.com/sites/Jensen-Lab/Shared Documents/papers/2024/2024_Gennis_Nectar/Supplemental/Nectar/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1209" documentId="8_{64C6D7B6-ACD5-9B47-A015-3122D88362F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE9AC754-67F3-994B-B8CF-AED9A21D651E}"/>
+  <xr:revisionPtr revIDLastSave="1212" documentId="8_{64C6D7B6-ACD5-9B47-A015-3122D88362F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A8481D5-C20B-C542-89D7-03A177458E3F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30860" yWindow="1100" windowWidth="28800" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="112">
   <si>
     <t>Parts and Costs</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>motorscrew-spacer</t>
+  </si>
+  <si>
+    <t>Stepperonline 14:1 Planetary Gear Nema 11</t>
   </si>
 </sst>
 </file>
@@ -901,10 +904,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1205,10 +1204,10 @@
   <dimension ref="B1:M78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1912,10 +1911,10 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="H36" s="10">
         <v>212.5</v>
@@ -1924,8 +1923,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="7">
-        <f>List[[#This Row],[Cost]]*List[[#This Row],[Quantity]]*M5</f>
-        <v>28.475000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="15" x14ac:dyDescent="0.15">
@@ -2479,7 +2477,7 @@
     <row r="63" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J63" s="20">
         <f>SUM(J4:J62)</f>
-        <v>3333.9222000000004</v>
+        <v>3355.4472000000005</v>
       </c>
     </row>
     <row r="64" spans="2:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -3059,16 +3057,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF8F058-6561-419D-864D-7B48B609513F}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="eb6350e6-4658-4306-88e7-c87555d9d7e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb6350e6-4658-4306-88e7-c87555d9d7e0"/>
     <ds:schemaRef ds:uri="2a1fbf0b-909b-447a-9e86-ad24098a1cb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
